--- a/MakeMyTrip/src/test/resources/testData/ExcelTestData.xlsx
+++ b/MakeMyTrip/src/test/resources/testData/ExcelTestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C315BA3E-6856-475D-83C1-951FD531152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5601D7-AA65-49F3-949E-3D913C9F8BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="20652" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="20652" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +63,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
@@ -95,10 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -394,7 +389,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -410,6 +405,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -418,7 +414,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,4 +491,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A1F8FE-8899-4F0D-A196-357E25E813DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>